--- a/SCRUM/SCRUM_TEAM_I.xlsx
+++ b/SCRUM/SCRUM_TEAM_I.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>PO - Backlog</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>Darstellung des "neuen Spiels". --&gt; Painter</t>
+  </si>
+  <si>
+    <t>360min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dino Spiel fertig </t>
+  </si>
+  <si>
+    <t>Dino Spiel fertig</t>
   </si>
 </sst>
 </file>
@@ -975,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1137,9 @@
       <c r="D9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
@@ -1143,7 +1154,9 @@
       <c r="D10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
@@ -1158,13 +1171,23 @@
       <c r="D11" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E11"/>
+      <c r="E11" s="15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
